--- a/va_facility_data_2025-02-20/Tomball VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tomball%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tomball VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tomball%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R45556d2ff6df4c04b54c3e52238c7fe5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd26c890c65f0448885b942f7934fe270"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R696a75cfbb7c4ecfa8e3b418499d6f06"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rab1df19f12e247bb835cb69bb401e224"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R749d9926a5ca4ec4812a5783026a5ce2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd6b8c5fd15d5462b8f704dd04cfce5bc"/>
   </x:sheets>
 </x:workbook>
 </file>
